--- a/transport_database/data.xlsx
+++ b/transport_database/data.xlsx
@@ -44,7 +44,7 @@
     <t>n_por</t>
   </si>
   <si>
-    <t>n_m_sorbed</t>
+    <t>m_inf</t>
   </si>
   <si>
     <t>n_z1</t>
@@ -599,7 +599,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0.6929510391434162</v>
       </c>
       <c r="F2" t="n">
-        <v>8.924859892288886e-05</v>
+        <v>89248.59892288886</v>
       </c>
       <c r="G2" t="n">
         <v>13120.72360236489</v>
@@ -626,7 +626,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J2" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K2" t="n">
         <v>9.803934025521027</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.3626307837255723</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001705451167998802</v>
+        <v>170545.1167998801</v>
       </c>
       <c r="G3" t="n">
         <v>18137.47086209264</v>
@@ -736,7 +736,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J3" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K3" t="n">
         <v>10.36547533172202</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0.1162797795398155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005318629740309527</v>
+        <v>531862.9740309527</v>
       </c>
       <c r="G4" t="n">
         <v>32030.00173518488</v>
@@ -846,7 +846,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J4" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K4" t="n">
         <v>15.69923638066702</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0.3785687151464032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001633650824574678</v>
+        <v>163365.0824574678</v>
       </c>
       <c r="G5" t="n">
         <v>17751.56722672897</v>
@@ -956,7 +956,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J5" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K5" t="n">
         <v>23.75853502301084</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0.3405468811775063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001816046858273056</v>
+        <v>181604.6858273056</v>
       </c>
       <c r="G6" t="n">
         <v>18716.32631513815</v>
@@ -1066,7 +1066,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J6" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K6" t="n">
         <v>21.93972174333605</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.05025712153709098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001230570065976953</v>
+        <v>1230570.065976953</v>
       </c>
       <c r="G7" t="n">
         <v>48720.33396466375</v>
@@ -1176,7 +1176,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J7" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K7" t="n">
         <v>67.02082822622152</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0.06245740888555877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004745878645994299</v>
+        <v>4745878.645994299</v>
       </c>
       <c r="G8" t="n">
         <v>43703.58670493599</v>
@@ -1286,7 +1286,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J8" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K8" t="n">
         <v>32.32604368824003</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0.01447441833308295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02047856268162545</v>
+        <v>20478562.68162545</v>
       </c>
       <c r="G9" t="n">
         <v>90783.83021930413</v>
@@ -1396,7 +1396,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J9" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K9" t="n">
         <v>52.89163932113362</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0.01098835941357735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0269753902250279</v>
+        <v>26975390.2250279</v>
       </c>
       <c r="G10" t="n">
         <v>104193.9815481918</v>
@@ -1506,7 +1506,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J10" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K10" t="n">
         <v>53.79824154007415</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0.05927539562953696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005000646220341785</v>
+        <v>5000646.220341785</v>
       </c>
       <c r="G11" t="n">
         <v>44861.29761102701</v>
@@ -1616,7 +1616,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J11" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K11" t="n">
         <v>51.09084193068585</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0.01402376361145269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0211366428675421</v>
+        <v>21136642.8675421</v>
       </c>
       <c r="G12" t="n">
         <v>92230.96885191792</v>
@@ -1726,7 +1726,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J12" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K12" t="n">
         <v>88.91774372479534</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0.009691359107747924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03058552261025326</v>
+        <v>30585522.61025326</v>
       </c>
       <c r="G13" t="n">
         <v>110947.2951670561</v>
@@ -1836,7 +1836,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J13" t="n">
-        <v>1.639557579700715e-05</v>
+        <v>0.7916813487046278</v>
       </c>
       <c r="K13" t="n">
         <v>92.01779777362965</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G14" t="n">
         <v>2425.770377614023</v>
@@ -1946,7 +1946,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J14" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K14" t="n">
         <v>9.732608044795407</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G15" t="n">
         <v>2425.770377614023</v>
@@ -2056,7 +2056,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J15" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K15" t="n">
         <v>8.540634006346377</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G16" t="n">
         <v>2425.770377614023</v>
@@ -2166,7 +2166,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J16" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K16" t="n">
         <v>7.607467263799499</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G17" t="n">
         <v>2425.770377614023</v>
@@ -2276,7 +2276,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J17" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K17" t="n">
         <v>7.128662286191632</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G18" t="n">
         <v>2425.770377614023</v>
@@ -2386,7 +2386,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J18" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K18" t="n">
         <v>6.827493732613591</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G19" t="n">
         <v>2425.770377614023</v>
@@ -2496,7 +2496,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J19" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K19" t="n">
         <v>6.666418371518755</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0.002021569727917618</v>
       </c>
       <c r="F20" t="n">
-        <v>4.132785883806042e-08</v>
+        <v>41.32785883806042</v>
       </c>
       <c r="G20" t="n">
         <v>17598726.26896448</v>
@@ -2606,7 +2606,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J20" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K20" t="n">
         <v>6.443705081727821</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G21" t="n">
         <v>2425.770377614023</v>
@@ -2716,7 +2716,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J21" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K21" t="n">
         <v>2.895407387794602</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G22" t="n">
         <v>2425.770377614023</v>
@@ -2826,7 +2826,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J22" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K22" t="n">
         <v>2.444395974876784</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G23" t="n">
         <v>2425.770377614023</v>
@@ -2936,7 +2936,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J23" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K23" t="n">
         <v>2.183281316269817</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>14.66629018293174</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0002998295641192619</v>
+        <v>299829.5641192619</v>
       </c>
       <c r="G24" t="n">
         <v>2425.770377614023</v>
@@ -3046,7 +3046,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J24" t="n">
-        <v>2.21623240491165e-05</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="K24" t="n">
         <v>1.873933790254037</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0.0742748454904367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000947924190671435</v>
+        <v>947924.190671435</v>
       </c>
       <c r="G25" t="n">
         <v>31015.18686774166</v>
@@ -3156,7 +3156,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J25" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K25" t="n">
         <v>13.57582312672216</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0.07583574531371903</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009284134085780672</v>
+        <v>928413.4085780672</v>
       </c>
       <c r="G26" t="n">
         <v>30694.34010704088</v>
@@ -3266,7 +3266,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J26" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K26" t="n">
         <v>13.43538357713538</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>0.004411068784510785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01596142029024756</v>
+        <v>15961420.29024756</v>
       </c>
       <c r="G27" t="n">
         <v>127269.2150779744</v>
@@ -3376,7 +3376,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J27" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K27" t="n">
         <v>63.53894944709889</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0.00342744280150657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02054211459570381</v>
+        <v>20542114.59570381</v>
       </c>
       <c r="G28" t="n">
         <v>144381.0423153491</v>
@@ -3486,7 +3486,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J28" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K28" t="n">
         <v>72.08200147359956</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0.01485496909808734</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000189584838134287</v>
+        <v>189584.838134287</v>
       </c>
       <c r="G29" t="n">
         <v>155075.9343387083</v>
@@ -3596,7 +3596,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J29" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K29" t="n">
         <v>8.345430393904826</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0.01516714906274381</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001856826817156135</v>
+        <v>185682.6817156135</v>
       </c>
       <c r="G30" t="n">
         <v>153471.7005352044</v>
@@ -3706,7 +3706,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J30" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K30" t="n">
         <v>8.25909835534719</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0.0008822137569021572</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003192284058049511</v>
+        <v>3192284.058049512</v>
       </c>
       <c r="G31" t="n">
         <v>636346.075389872</v>
@@ -3816,7 +3816,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J31" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K31" t="n">
         <v>24.81605626881978</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0.0006854885603013141</v>
       </c>
       <c r="F32" t="n">
-        <v>0.004108422919140763</v>
+        <v>4108422.919140763</v>
       </c>
       <c r="G32" t="n">
         <v>721905.2115767456</v>
@@ -3926,7 +3926,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J32" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K32" t="n">
         <v>28.15266887639219</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0.005455947686038715</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01290461838168521</v>
+        <v>12904618.38168521</v>
       </c>
       <c r="G33" t="n">
         <v>114435.3446499433</v>
@@ -4036,7 +4036,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J33" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K33" t="n">
         <v>27.64079543500055</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>0.005775253795992719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0121911391751513</v>
+        <v>12191139.1751513</v>
       </c>
       <c r="G34" t="n">
         <v>111226.8770429356</v>
@@ -4146,7 +4146,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J34" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K34" t="n">
         <v>26.86581986205661</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>0.003478789544300359</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02023891411141057</v>
+        <v>20238914.11141057</v>
       </c>
       <c r="G35" t="n">
         <v>143311.5531130132</v>
@@ -4256,7 +4256,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J35" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K35" t="n">
         <v>27.81523090461772</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.003812569888760818</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01846705105821735</v>
+        <v>18467051.05821735</v>
       </c>
       <c r="G36" t="n">
         <v>136894.6178989977</v>
@@ -4366,7 +4366,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J36" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K36" t="n">
         <v>26.56977280441095</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>0.001091189537207743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002580923676337042</v>
+        <v>2580923.676337041</v>
       </c>
       <c r="G37" t="n">
         <v>572176.7232497168</v>
@@ -4476,7 +4476,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J37" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K37" t="n">
         <v>27.64079543500055</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0.001155050759198544</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00243822783503026</v>
+        <v>2438227.83503026</v>
       </c>
       <c r="G38" t="n">
         <v>556134.385214678</v>
@@ -4586,7 +4586,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J38" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K38" t="n">
         <v>26.86581986205661</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="39" spans="1:36">
       <c r="A39" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0.0006957579088600717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004047782822282115</v>
+        <v>4047782.822282115</v>
       </c>
       <c r="G39" t="n">
         <v>716557.765565066</v>
@@ -4696,7 +4696,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J39" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K39" t="n">
         <v>27.81523090461772</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0.0007625139777521637</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003693410211643471</v>
+        <v>3693410.211643471</v>
       </c>
       <c r="G40" t="n">
         <v>684473.0894949883</v>
@@ -4806,7 +4806,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J40" t="n">
-        <v>2.893081761006289e-05</v>
+        <v>0.7315983892047231</v>
       </c>
       <c r="K40" t="n">
         <v>26.56977280441095</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>0.001965605339025042</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0002278260381860155</v>
+        <v>227826.0381860155</v>
       </c>
       <c r="G41" t="n">
         <v>481014.2823903177</v>
@@ -4916,7 +4916,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0002775410833840536</v>
+        <v>24.17455546937346</v>
       </c>
       <c r="K41" t="n">
         <v>14.47932763745407</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>0.009238345093417697</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001070782379474273</v>
+        <v>1070782.379474273</v>
       </c>
       <c r="G42" t="n">
         <v>102343.4643383655</v>
@@ -5026,7 +5026,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0002775410833840536</v>
+        <v>24.17455546937346</v>
       </c>
       <c r="K42" t="n">
         <v>14.47932763745407</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0.004087763315671548</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0004737975130417136</v>
+        <v>473797.5130417136</v>
       </c>
       <c r="G43" t="n">
         <v>231296.2294047059</v>
@@ -5136,7 +5136,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0002775410833840536</v>
+        <v>24.17455546937346</v>
       </c>
       <c r="K43" t="n">
         <v>14.47932763745407</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>42.85438361789513</v>
@@ -5234,7 +5234,7 @@
         <v>0.07470164908188036</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01101513602494692</v>
+        <v>11015136.02494692</v>
       </c>
       <c r="G44" t="n">
         <v>23586.36954059701</v>
@@ -5246,7 +5246,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J44" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K44" t="n">
         <v>29.20216246692448</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
         <v>44.34726173573164</v>
@@ -5344,7 +5344,7 @@
         <v>0.06975688469348228</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01179595146114153</v>
+        <v>11795951.46114153</v>
       </c>
       <c r="G45" t="n">
         <v>24408.02585656043</v>
@@ -5356,7 +5356,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J45" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K45" t="n">
         <v>33.87370613950408</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="46" spans="1:36">
       <c r="A46" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>136.628258807247</v>
@@ -5454,7 +5454,7 @@
         <v>0.07349192576738102</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01119645209093133</v>
+        <v>11196452.09093133</v>
       </c>
       <c r="G46" t="n">
         <v>23779.70043847075</v>
@@ -5466,7 +5466,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J46" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K46" t="n">
         <v>31.64464328064903</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="47" spans="1:36">
       <c r="A47" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
         <v>134.1289613900412</v>
@@ -5564,7 +5564,7 @@
         <v>0.0762562723444111</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01079057237689735</v>
+        <v>10790572.37689735</v>
       </c>
       <c r="G47" t="n">
         <v>23344.70591825482</v>
@@ -5576,7 +5576,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J47" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K47" t="n">
         <v>29.88710233705046</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="48" spans="1:36">
       <c r="A48" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0.08630940596050436</v>
       </c>
       <c r="F48" t="n">
-        <v>0.009533709759296728</v>
+        <v>9533709.759296728</v>
       </c>
       <c r="G48" t="n">
         <v>21943.05690867016</v>
@@ -5686,7 +5686,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J48" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K48" t="n">
         <v>17.68762885652876</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="49" spans="1:36">
       <c r="A49" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>0.08298657697220829</v>
       </c>
       <c r="F49" t="n">
-        <v>0.009915444833931768</v>
+        <v>9915444.833931768</v>
       </c>
       <c r="G49" t="n">
         <v>22378.05142888609</v>
@@ -5796,7 +5796,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J49" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K49" t="n">
         <v>15.40695877086674</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0.06192132685089704</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01328861747271882</v>
+        <v>13288617.47271883</v>
       </c>
       <c r="G50" t="n">
         <v>25906.34031508195</v>
@@ -5906,7 +5906,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J50" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K50" t="n">
         <v>13.46193538154436</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="51" spans="1:36">
       <c r="A51" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>22.51033257109524</v>
@@ -6004,7 +6004,7 @@
         <v>0.08122283183101085</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01013075766228826</v>
+        <v>10130757.66228826</v>
       </c>
       <c r="G51" t="n">
         <v>22619.71505122827</v>
@@ -6016,7 +6016,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J51" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K51" t="n">
         <v>14.11495137406173</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="52" spans="1:36">
       <c r="A52" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
         <v>22.51033257109524</v>
@@ -6114,7 +6114,7 @@
         <v>0.08122283183101085</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01013075766228826</v>
+        <v>10130757.66228826</v>
       </c>
       <c r="G52" t="n">
         <v>22619.71505122827</v>
@@ -6126,7 +6126,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J52" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K52" t="n">
         <v>17.83655386170805</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="53" spans="1:36">
       <c r="A53" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B53" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>41.44932185993136</v>
@@ -6224,7 +6224,7 @@
         <v>0.07985200696169976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01030467307251821</v>
+        <v>10304673.07251821</v>
       </c>
       <c r="G53" t="n">
         <v>22813.04594910202</v>
@@ -6236,7 +6236,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J53" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K53" t="n">
         <v>27.87189692629672</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="54" spans="1:36">
       <c r="A54" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C54" t="n">
         <v>41.97622001916778</v>
@@ -6334,7 +6334,7 @@
         <v>0.07785993557078533</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01056832143377105</v>
+        <v>10568321.43377105</v>
       </c>
       <c r="G54" t="n">
         <v>23103.04229591264</v>
@@ -6346,7 +6346,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J54" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K54" t="n">
         <v>29.431165048548</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>133.8512616770184</v>
@@ -6444,7 +6444,7 @@
         <v>0.07657301664466572</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01074593717187823</v>
+        <v>10745937.17187823</v>
       </c>
       <c r="G55" t="n">
         <v>23296.37319378638</v>
@@ -6456,7 +6456,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J55" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K55" t="n">
         <v>27.48754497320061</v>
@@ -6539,10 +6539,10 @@
     </row>
     <row r="56" spans="1:36">
       <c r="A56" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
         <v>141.3491539286356</v>
@@ -6554,7 +6554,7 @@
         <v>0.06866481725389094</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01198355808451724</v>
+        <v>11983558.08451724</v>
       </c>
       <c r="G56" t="n">
         <v>24601.35675443417</v>
@@ -6566,7 +6566,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J56" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K56" t="n">
         <v>31.48404879449146</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="57" spans="1:36">
       <c r="A57" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0.08262926166280525</v>
       </c>
       <c r="F57" t="n">
-        <v>0.009958322383209204</v>
+        <v>9958322.383209204</v>
       </c>
       <c r="G57" t="n">
         <v>22426.38415335453</v>
@@ -6676,7 +6676,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J57" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K57" t="n">
         <v>12.7228187581509</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="58" spans="1:36">
       <c r="A58" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0.05775423916550709</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01424741867980833</v>
+        <v>14247418.67980833</v>
       </c>
       <c r="G58" t="n">
         <v>26824.66207998224</v>
@@ -6786,7 +6786,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J58" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K58" t="n">
         <v>12.05891832112628</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="59" spans="1:36">
       <c r="A59" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0.0296953133140959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02770972029226477</v>
+        <v>27709720.29226477</v>
       </c>
       <c r="G59" t="n">
         <v>37409.52873856983</v>
@@ -6896,7 +6896,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J59" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K59" t="n">
         <v>15.22843561839413</v>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="60" spans="1:36">
       <c r="A60" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B60" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>21.83694655401119</v>
@@ -6994,7 +6994,7 @@
         <v>0.08630940596050436</v>
       </c>
       <c r="F60" t="n">
-        <v>0.009533709759296728</v>
+        <v>9533709.759296728</v>
       </c>
       <c r="G60" t="n">
         <v>21943.05690867016</v>
@@ -7006,7 +7006,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J60" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K60" t="n">
         <v>16.25120337805519</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="61" spans="1:36">
       <c r="A61" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
         <v>21.93314455645177</v>
@@ -7104,7 +7104,7 @@
         <v>0.08555396621535145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.009617892218503777</v>
+        <v>9617892.218503777</v>
       </c>
       <c r="G61" t="n">
         <v>22039.72235760703</v>
@@ -7116,7 +7116,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J61" t="n">
-        <v>2.459336369551073e-05</v>
+        <v>1.187522023056942</v>
       </c>
       <c r="K61" t="n">
         <v>15.12187684594729</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="62" spans="1:36">
       <c r="A62" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0.04959161220268364</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00545957271922768</v>
+        <v>5459572.71922768</v>
       </c>
       <c r="G62" t="n">
         <v>40986.15034923414</v>
@@ -7226,7 +7226,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J62" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K62" t="n">
         <v>25.94201962811118</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="63" spans="1:36">
       <c r="A63" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0.04668496811183833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005799490157853055</v>
+        <v>5799490.157853056</v>
       </c>
       <c r="G63" t="n">
         <v>42242.80118541348</v>
@@ -7336,7 +7336,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J63" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K63" t="n">
         <v>22.41490664692883</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="64" spans="1:36">
       <c r="A64" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>0.04268817028259487</v>
       </c>
       <c r="F64" t="n">
-        <v>0.006342483439602515</v>
+        <v>6342483.439602516</v>
       </c>
       <c r="G64" t="n">
         <v>44176.11016415094</v>
@@ -7446,7 +7446,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J64" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K64" t="n">
         <v>17.55942978779576</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>0.0346835882471811</v>
       </c>
       <c r="F65" t="n">
-        <v>0.007806257275191104</v>
+        <v>7806257.275191104</v>
       </c>
       <c r="G65" t="n">
         <v>49009.38261099459</v>
@@ -7556,7 +7556,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J65" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K65" t="n">
         <v>13.33608882391121</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="66" spans="1:36">
       <c r="A66" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0.05952755026306948</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004548297584694346</v>
+        <v>4548297.584694345</v>
       </c>
       <c r="G66" t="n">
         <v>37409.52873856983</v>
@@ -7666,7 +7666,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J66" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K66" t="n">
         <v>54.09484392773438</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>0.03821603965617604</v>
       </c>
       <c r="F67" t="n">
-        <v>0.007084695733000547</v>
+        <v>7084695.733000547</v>
       </c>
       <c r="G67" t="n">
         <v>46689.41183650964</v>
@@ -7776,7 +7776,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J67" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K67" t="n">
         <v>52.90410397027533</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="68" spans="1:36">
       <c r="A68" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0.02623027422290706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01032200467228983</v>
+        <v>10322004.67228983</v>
       </c>
       <c r="G68" t="n">
         <v>56355.95673019693</v>
@@ -7886,7 +7886,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J68" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K68" t="n">
         <v>50.81819126809582</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>0.02451914467284818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01104235146440936</v>
+        <v>11042351.46440936</v>
       </c>
       <c r="G69" t="n">
         <v>58289.26570893439</v>
@@ -7996,7 +7996,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J69" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K69" t="n">
         <v>49.70142974227739</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0.04962012951849887</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00545957271922768</v>
+        <v>5459572.71922768</v>
       </c>
       <c r="G70" t="n">
         <v>40986.15034923414</v>
@@ -8106,7 +8106,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J70" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K70" t="n">
         <v>26.0339489025192</v>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>108.083657244458</v>
@@ -8204,7 +8204,7 @@
         <v>0.02149887976864448</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002788124731774954</v>
+        <v>2788124.731774954</v>
       </c>
       <c r="G71" t="n">
         <v>29289.6310278725</v>
@@ -8216,7 +8216,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J71" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K71" t="n">
         <v>21.640882527881</v>
@@ -8299,10 +8299,10 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>103.4464046234086</v>
@@ -8314,7 +8314,7 @@
         <v>0.02346956780831725</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002554012024336107</v>
+        <v>2554012.024336107</v>
       </c>
       <c r="G72" t="n">
         <v>28032.98019169315</v>
@@ -8326,7 +8326,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J72" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K72" t="n">
         <v>21.29012925984136</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -8424,7 +8424,7 @@
         <v>0.0467118139819429</v>
       </c>
       <c r="F73" t="n">
-        <v>0.005799490157853055</v>
+        <v>5799490.157853056</v>
       </c>
       <c r="G73" t="n">
         <v>42242.80118541348</v>
@@ -8436,7 +8436,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J73" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K73" t="n">
         <v>22.93635050614836</v>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>192.7669715325462</v>
@@ -8534,7 +8534,7 @@
         <v>0.02027644901256863</v>
       </c>
       <c r="F74" t="n">
-        <v>0.002956215772853436</v>
+        <v>2956215.772853435</v>
       </c>
       <c r="G74" t="n">
         <v>30159.62006830436</v>
@@ -8546,7 +8546,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J74" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K74" t="n">
         <v>17.33304082830019</v>
@@ -8629,10 +8629,10 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>197.7097143923551</v>
@@ -8644,7 +8644,7 @@
         <v>0.01927529934257305</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00310976018183136</v>
+        <v>3109760.18183136</v>
       </c>
       <c r="G75" t="n">
         <v>30932.94365979934</v>
@@ -8656,7 +8656,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J75" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K75" t="n">
         <v>16.6168229105661</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>0.04271271782157279</v>
       </c>
       <c r="F76" t="n">
-        <v>0.006342483439602515</v>
+        <v>6342483.439602516</v>
       </c>
       <c r="G76" t="n">
         <v>44176.11016415094</v>
@@ -8766,7 +8766,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J76" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K76" t="n">
         <v>18.00802511416261</v>
@@ -8849,10 +8849,10 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>243.2776682537811</v>
@@ -8864,7 +8864,7 @@
         <v>0.02121785168158539</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002825053133934202</v>
+        <v>2825053.133934202</v>
       </c>
       <c r="G77" t="n">
         <v>29482.96192574625</v>
@@ -8876,7 +8876,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K77" t="n">
         <v>13.69206682003649</v>
@@ -8959,10 +8959,10 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>249.658721847323</v>
@@ -8974,7 +8974,7 @@
         <v>0.02014709400605784</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002975196242713247</v>
+        <v>2975196.242713247</v>
       </c>
       <c r="G78" t="n">
         <v>30256.28551724124</v>
@@ -8986,7 +8986,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J78" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K78" t="n">
         <v>12.65003403745092</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0.03470353280626516</v>
       </c>
       <c r="F79" t="n">
-        <v>0.007806257275191104</v>
+        <v>7806257.275191104</v>
       </c>
       <c r="G79" t="n">
         <v>49009.38261099459</v>
@@ -9096,7 +9096,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J79" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K79" t="n">
         <v>13.72186700888349</v>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>375.6311817367572</v>
@@ -9194,7 +9194,7 @@
         <v>0.01779969746935657</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00336756051565525</v>
+        <v>3367560.51565525</v>
       </c>
       <c r="G80" t="n">
         <v>32189.59449597869</v>
@@ -9206,7 +9206,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J80" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K80" t="n">
         <v>9.256754292783825</v>
@@ -9289,10 +9289,10 @@
     </row>
     <row r="81" spans="1:36">
       <c r="A81" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>362.0949229354326</v>
@@ -9304,7 +9304,7 @@
         <v>0.01915539108393242</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003129226551719581</v>
+        <v>3129226.551719581</v>
       </c>
       <c r="G81" t="n">
         <v>31029.60910873621</v>
@@ -9316,7 +9316,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J81" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K81" t="n">
         <v>8.876339830525207</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="82" spans="1:36">
       <c r="A82" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0.02624535776185065</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01032200467228983</v>
+        <v>10322004.67228983</v>
       </c>
       <c r="G82" t="n">
         <v>56355.95673019693</v>
@@ -9426,7 +9426,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J82" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K82" t="n">
         <v>52.1565733513891</v>
@@ -9509,10 +9509,10 @@
     </row>
     <row r="83" spans="1:36">
       <c r="A83" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B83" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>615.7833812845226</v>
@@ -9524,7 +9524,7 @@
         <v>0.02207794826321272</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002714996777499076</v>
+        <v>2714996.777499076</v>
       </c>
       <c r="G83" t="n">
         <v>28902.96923212501</v>
@@ -9536,7 +9536,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J83" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K83" t="n">
         <v>29.14845319604034</v>
@@ -9619,10 +9619,10 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>656.9729051162633</v>
@@ -9634,7 +9634,7 @@
         <v>0.01939633703166715</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003090354549446689</v>
+        <v>3090354.549446688</v>
       </c>
       <c r="G84" t="n">
         <v>30836.27821086247</v>
@@ -9646,7 +9646,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J84" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K84" t="n">
         <v>30.62217303001835</v>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="85" spans="1:36">
       <c r="A85" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0.0595617811717889</v>
       </c>
       <c r="F85" t="n">
-        <v>0.004548297584694346</v>
+        <v>4548297.584694345</v>
       </c>
       <c r="G85" t="n">
         <v>37409.52873856983</v>
@@ -9756,7 +9756,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J85" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K85" t="n">
         <v>54.09484392773438</v>
@@ -9839,10 +9839,10 @@
     </row>
     <row r="86" spans="1:36">
       <c r="A86" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>186.9126403511341</v>
@@ -9854,7 +9854,7 @@
         <v>0.02396278518228315</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002501443715012376</v>
+        <v>2501443.715012376</v>
       </c>
       <c r="G86" t="n">
         <v>27742.98384488254</v>
@@ -9866,7 +9866,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J86" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K86" t="n">
         <v>50.9926989154833</v>
@@ -9949,10 +9949,10 @@
     </row>
     <row r="87" spans="1:36">
       <c r="A87" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>194.7278030138993</v>
@@ -9964,7 +9964,7 @@
         <v>0.02207794826321272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002714996777499076</v>
+        <v>2714996.777499076</v>
       </c>
       <c r="G87" t="n">
         <v>28902.96923212501</v>
@@ -9976,7 +9976,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J87" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K87" t="n">
         <v>51.46500741711981</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="88" spans="1:36">
       <c r="A88" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0.02453324423850249</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01104235146440936</v>
+        <v>11042351.46440936</v>
       </c>
       <c r="G88" t="n">
         <v>58289.26570893439</v>
@@ -10086,7 +10086,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J88" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K88" t="n">
         <v>50.44702027284883</v>
@@ -10169,10 +10169,10 @@
     </row>
     <row r="89" spans="1:36">
       <c r="A89" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>914.5372967194376</v>
@@ -10184,7 +10184,7 @@
         <v>0.02001897290640068</v>
       </c>
       <c r="F89" t="n">
-        <v>0.002994237450076609</v>
+        <v>2994237.450076609</v>
       </c>
       <c r="G89" t="n">
         <v>30352.9509661781</v>
@@ -10196,7 +10196,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J89" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K89" t="n">
         <v>27.75981947482338</v>
@@ -10279,10 +10279,10 @@
     </row>
     <row r="90" spans="1:36">
       <c r="A90" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>934.9250708501256</v>
@@ -10294,7 +10294,7 @@
         <v>0.01915539108393242</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003129226551719581</v>
+        <v>3129226.551719581</v>
       </c>
       <c r="G90" t="n">
         <v>31029.60910873621</v>
@@ -10306,7 +10306,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J90" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K90" t="n">
         <v>27.92347559759768</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="91" spans="1:36">
       <c r="A91" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -10404,7 +10404,7 @@
         <v>0.03823801552716868</v>
       </c>
       <c r="F91" t="n">
-        <v>0.007084695733000547</v>
+        <v>7084695.733000547</v>
       </c>
       <c r="G91" t="n">
         <v>46689.41183650964</v>
@@ -10416,7 +10416,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J91" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K91" t="n">
         <v>54.39505157232294</v>
@@ -10499,10 +10499,10 @@
     </row>
     <row r="92" spans="1:36">
       <c r="A92" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>420.861908840633</v>
@@ -10514,7 +10514,7 @@
         <v>0.02363226796469727</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002536428517057978</v>
+        <v>2536428.517057979</v>
       </c>
       <c r="G92" t="n">
         <v>27936.31474275629</v>
@@ -10526,7 +10526,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J92" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K92" t="n">
         <v>36.11377015295906</v>
@@ -10609,10 +10609,10 @@
     </row>
     <row r="93" spans="1:36">
       <c r="A93" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>439.7934133905575</v>
@@ -10624,7 +10624,7 @@
         <v>0.02164149217884612</v>
       </c>
       <c r="F93" t="n">
-        <v>0.002769751636950657</v>
+        <v>2769751.636950657</v>
       </c>
       <c r="G93" t="n">
         <v>29192.96557893563</v>
@@ -10636,7 +10636,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J93" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K93" t="n">
         <v>36.43392903889615</v>
@@ -10719,10 +10719,10 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" t="n">
-        <v>0.00962</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0.03554752735333307</v>
@@ -10734,7 +10734,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G94" t="n">
         <v>41029.08547939336</v>
@@ -10746,7 +10746,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J94" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K94" t="n">
         <v>21.92660533260348</v>
@@ -10829,10 +10829,10 @@
     </row>
     <row r="95" spans="1:36">
       <c r="A95" t="n">
-        <v>0.00865</v>
+        <v>8.65</v>
       </c>
       <c r="B95" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>649.461992843566</v>
@@ -10844,7 +10844,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G95" t="n">
         <v>41029.08547939336</v>
@@ -10856,7 +10856,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J95" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K95" t="n">
         <v>19.58825568854026</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" t="n">
-        <v>0.008569999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="B96" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0.0885835608307632</v>
@@ -10954,7 +10954,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F96" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G96" t="n">
         <v>41029.08547939336</v>
@@ -10966,7 +10966,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J96" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K96" t="n">
         <v>17.93543014382728</v>
@@ -11049,10 +11049,10 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" t="n">
-        <v>0.00432</v>
+        <v>4.32</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C97" t="n">
         <v>0.03986920158726077</v>
@@ -11064,7 +11064,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F97" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G97" t="n">
         <v>41029.08547939336</v>
@@ -11076,7 +11076,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J97" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K97" t="n">
         <v>13.91837731133615</v>
@@ -11159,10 +11159,10 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98" t="n">
-        <v>0.00557</v>
+        <v>5.57</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0.03665588619736242</v>
@@ -11174,7 +11174,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G98" t="n">
         <v>41029.08547939336</v>
@@ -11186,7 +11186,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J98" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K98" t="n">
         <v>11.13632309278603</v>
@@ -11269,10 +11269,10 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" t="n">
-        <v>0.00441</v>
+        <v>4.41</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0.03284453662046273</v>
@@ -11284,7 +11284,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F99" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G99" t="n">
         <v>41029.08547939336</v>
@@ -11296,7 +11296,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J99" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K99" t="n">
         <v>9.632846519292645</v>
@@ -11379,10 +11379,10 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100" t="n">
-        <v>0.0112</v>
+        <v>11.2</v>
       </c>
       <c r="B100" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
         <v>0.03284453662046273</v>
@@ -11394,7 +11394,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F100" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G100" t="n">
         <v>41029.08547939336</v>
@@ -11406,7 +11406,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J100" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K100" t="n">
         <v>12.26075288522054</v>
@@ -11489,10 +11489,10 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" t="n">
-        <v>0.00745</v>
+        <v>7.45</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0.02947334139962107</v>
@@ -11504,7 +11504,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G101" t="n">
         <v>41029.08547939336</v>
@@ -11516,7 +11516,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J101" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K101" t="n">
         <v>10.25281011671314</v>
@@ -11599,10 +11599,10 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102" t="n">
-        <v>0.00498</v>
+        <v>4.98</v>
       </c>
       <c r="B102" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0.03077830418837637</v>
@@ -11614,7 +11614,7 @@
         <v>0.05052523440151928</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001669717231543624</v>
+        <v>1669717.231543624</v>
       </c>
       <c r="G102" t="n">
         <v>41029.08547939336</v>
@@ -11626,7 +11626,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J102" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>2.099369290761379</v>
       </c>
       <c r="K102" t="n">
         <v>10.82056966644289</v>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" t="n">
-        <v>0.005035</v>
+        <v>5.035</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G103" t="n">
         <v>7157.296022516397</v>
@@ -11736,7 +11736,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J103" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K103" t="n">
         <v>6.785985785224156</v>
@@ -11819,10 +11819,10 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" t="n">
-        <v>0.008189999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0.0371900135738341</v>
@@ -11834,7 +11834,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G104" t="n">
         <v>7157.296022516397</v>
@@ -11846,7 +11846,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J104" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K104" t="n">
         <v>5.43812915364813</v>
@@ -11929,10 +11929,10 @@
     </row>
     <row r="105" spans="1:36">
       <c r="A105" t="n">
-        <v>0.00861</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="B105" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0.04178230440041981</v>
@@ -11944,7 +11944,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G105" t="n">
         <v>7157.296022516397</v>
@@ -11956,7 +11956,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J105" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K105" t="n">
         <v>5.851870550253021</v>
@@ -12039,10 +12039,10 @@
     </row>
     <row r="106" spans="1:36">
       <c r="A106" t="n">
-        <v>0.00817</v>
+        <v>8.17</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0.03701873813279293</v>
@@ -12054,7 +12054,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G106" t="n">
         <v>7157.296022516397</v>
@@ -12066,7 +12066,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J106" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K106" t="n">
         <v>5.443583017512467</v>
@@ -12149,10 +12149,10 @@
     </row>
     <row r="107" spans="1:36">
       <c r="A107" t="n">
-        <v>0.007405</v>
+        <v>7.405</v>
       </c>
       <c r="B107" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0.03966200509213728</v>
@@ -12164,7 +12164,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G107" t="n">
         <v>7157.296022516397</v>
@@ -12176,7 +12176,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J107" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K107" t="n">
         <v>4.649105503895486</v>
@@ -12259,10 +12259,10 @@
     </row>
     <row r="108" spans="1:36">
       <c r="A108" t="n">
-        <v>0.00661</v>
+        <v>6.61</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000768496</v>
+        <v>0.7684960000000001</v>
       </c>
       <c r="C108" t="n">
         <v>0.03818109886157092</v>
@@ -12274,7 +12274,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G108" t="n">
         <v>7157.296022516397</v>
@@ -12286,7 +12286,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J108" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K108" t="n">
         <v>7.255550926325506</v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109" t="n">
-        <v>0.00466</v>
+        <v>4.66</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0007202792000000001</v>
+        <v>0.7202792</v>
       </c>
       <c r="C109" t="n">
         <v>0.04552650890847572</v>
@@ -12384,7 +12384,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G109" t="n">
         <v>7157.296022516397</v>
@@ -12396,7 +12396,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J109" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K109" t="n">
         <v>6.664809706491238</v>
@@ -12479,10 +12479,10 @@
     </row>
     <row r="110" spans="1:36">
       <c r="A110" t="n">
-        <v>0.00433</v>
+        <v>4.33</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0007364064</v>
+        <v>0.7364064</v>
       </c>
       <c r="C110" t="n">
         <v>0.04246437532184311</v>
@@ -12494,7 +12494,7 @@
         <v>1.1325731216822</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0006262973017434287</v>
+        <v>626297.3017434287</v>
       </c>
       <c r="G110" t="n">
         <v>7157.296022516397</v>
@@ -12506,7 +12506,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J110" t="n">
-        <v>3.557951482479784e-05</v>
+        <v>2.799159054348506</v>
       </c>
       <c r="K110" t="n">
         <v>7.422081838458977</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -12604,7 +12604,7 @@
         <v>0.1359445750750791</v>
       </c>
       <c r="F111" t="n">
-        <v>6.806023320708145e-05</v>
+        <v>68060.23320708144</v>
       </c>
       <c r="G111" t="n">
         <v>22120.92575595167</v>
@@ -12616,7 +12616,7 @@
         <v>28.24843845498824</v>
       </c>
       <c r="J111" t="n">
-        <v>2.037735849056603e-05</v>
+        <v>2.519243148913655</v>
       </c>
       <c r="K111" t="n">
         <v>25.18915554972734</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="112" spans="1:36">
       <c r="A112" t="n">
-        <v>5e-06</v>
+        <v>0.005</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -12714,7 +12714,7 @@
         <v>0.133135802862784</v>
       </c>
       <c r="F112" t="n">
-        <v>6.665403004164586e-05</v>
+        <v>66654.03004164586</v>
       </c>
       <c r="G112" t="n">
         <v>32940.26743194631</v>
@@ -12726,7 +12726,7 @@
         <v>29.91460244999698</v>
       </c>
       <c r="J112" t="n">
-        <v>2.668463611859838e-05</v>
+        <v>3.358990865218206</v>
       </c>
       <c r="K112" t="n">
         <v>25.18915554972734</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="113" spans="1:36">
       <c r="A113" t="n">
-        <v>1e-05</v>
+        <v>0.01</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>0.1163135895046705</v>
       </c>
       <c r="F113" t="n">
-        <v>5.823204068620325e-05</v>
+        <v>58232.04068620325</v>
       </c>
       <c r="G113" t="n">
         <v>37704.35569689723</v>
@@ -12836,7 +12836,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J113" t="n">
-        <v>1.734631771150335e-05</v>
+        <v>2.417455546937346</v>
       </c>
       <c r="K113" t="n">
         <v>25.18915554972734</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="114" spans="1:36">
       <c r="A114" t="n">
-        <v>5e-06</v>
+        <v>0.005</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -12934,7 +12934,7 @@
         <v>0.1263484874227205</v>
       </c>
       <c r="F114" t="n">
-        <v>6.325598145128745e-05</v>
+        <v>63255.98145128744</v>
       </c>
       <c r="G114" t="n">
         <v>34709.78593035665</v>
@@ -12946,7 +12946,7 @@
         <v>31.70729059021079</v>
       </c>
       <c r="J114" t="n">
-        <v>2.562065541211519e-05</v>
+        <v>3.282650163735975</v>
       </c>
       <c r="K114" t="n">
         <v>25.18915554972734</v>
@@ -13029,7 +13029,7 @@
     </row>
     <row r="115" spans="1:36">
       <c r="A115" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>2.402632728291235</v>
       </c>
       <c r="F115" t="n">
-        <v>3.818657464337154e-06</v>
+        <v>3818.657464337154</v>
       </c>
       <c r="G115" t="n">
         <v>13336.20612903389</v>
@@ -13056,7 +13056,7 @@
         <v>26.69754373611833</v>
       </c>
       <c r="J115" t="n">
-        <v>3.085953878406709e-05</v>
+        <v>3.745783752728182</v>
       </c>
       <c r="K115" t="n">
         <v>5.979110080487908</v>
@@ -13139,7 +13139,7 @@
     </row>
     <row r="116" spans="1:36">
       <c r="A116" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>1.181954488679535</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0001007128174774082</v>
+        <v>100712.8174774082</v>
       </c>
       <c r="G116" t="n">
         <v>6556.034105449432</v>
@@ -13166,7 +13166,7 @@
         <v>38.93242588245174</v>
       </c>
       <c r="J116" t="n">
-        <v>1.989154067224792e-05</v>
+        <v>2.700628655635438</v>
       </c>
       <c r="K116" t="n">
         <v>3.227539804918322</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -13264,7 +13264,7 @@
         <v>1.181954488679535</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0001007128174774082</v>
+        <v>100712.8174774082</v>
       </c>
       <c r="G117" t="n">
         <v>6556.034105449432</v>
@@ -13276,7 +13276,7 @@
         <v>34.66163246432979</v>
       </c>
       <c r="J117" t="n">
-        <v>2.055926463473634e-05</v>
+        <v>2.703478708490775</v>
       </c>
       <c r="K117" t="n">
         <v>3.227539804918322</v>
@@ -13359,7 +13359,7 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -13374,7 +13374,7 @@
         <v>1.181954488679535</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001007128174774082</v>
+        <v>100712.8174774082</v>
       </c>
       <c r="G118" t="n">
         <v>6556.034105449432</v>
@@ -13386,7 +13386,7 @@
         <v>31.89399178764137</v>
       </c>
       <c r="J118" t="n">
-        <v>2.100842613091895e-05</v>
+        <v>2.696429917053916</v>
       </c>
       <c r="K118" t="n">
         <v>3.227539804918322</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -13484,7 +13484,7 @@
         <v>1.181954488679535</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001007128174774082</v>
+        <v>100712.8174774082</v>
       </c>
       <c r="G119" t="n">
         <v>6556.034105449432</v>
@@ -13496,7 +13496,7 @@
         <v>34.04343350612118</v>
       </c>
       <c r="J119" t="n">
-        <v>2.065201322699864e-05</v>
+        <v>2.701748319257177</v>
       </c>
       <c r="K119" t="n">
         <v>3.227539804918322</v>
@@ -13579,7 +13579,7 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -13594,7 +13594,7 @@
         <v>1.034807961949286</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0001150338720439987</v>
+        <v>115033.8720439988</v>
       </c>
       <c r="G120" t="n">
         <v>7006.670596067906</v>
@@ -13606,7 +13606,7 @@
         <v>40.93422596689312</v>
       </c>
       <c r="J120" t="n">
-        <v>1.95937846836848e-05</v>
+        <v>2.695437487934647</v>
       </c>
       <c r="K120" t="n">
         <v>3.256424985427971</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0.6524938999750468</v>
       </c>
       <c r="F121" t="n">
-        <v>0.000182435370950652</v>
+        <v>182435.370950652</v>
       </c>
       <c r="G121" t="n">
         <v>8823.753219529499</v>
@@ -13716,7 +13716,7 @@
         <v>37.28385186595087</v>
       </c>
       <c r="J121" t="n">
-        <v>2.009841661135869e-05</v>
+        <v>2.697091536466762</v>
       </c>
       <c r="K121" t="n">
         <v>4.026037354456235</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>27.6577350351011</v>
       </c>
       <c r="F122" t="n">
-        <v>0.002356679928971352</v>
+        <v>2356679.928971352</v>
       </c>
       <c r="G122" t="n">
         <v>280.1723976687792</v>
@@ -13826,7 +13826,7 @@
         <v>32.27161914666592</v>
       </c>
       <c r="J122" t="n">
-        <v>2.092186110836709e-05</v>
+        <v>2.694724974720812</v>
       </c>
       <c r="K122" t="n">
         <v>3.227539804918322</v>
@@ -13909,7 +13909,7 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>5.935136273626846</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0005057253066462129</v>
+        <v>505725.3066462129</v>
       </c>
       <c r="G123" t="n">
         <v>1305.603373136511</v>
@@ -13936,7 +13936,7 @@
         <v>39.66787077025722</v>
       </c>
       <c r="J123" t="n">
-        <v>1.978987286686768e-05</v>
+        <v>2.700170611426545</v>
       </c>
       <c r="K123" t="n">
         <v>3.227539804918322</v>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -14034,7 +14034,7 @@
         <v>0.6524938999750468</v>
       </c>
       <c r="F124" t="n">
-        <v>0.000182435370950652</v>
+        <v>182435.370950652</v>
       </c>
       <c r="G124" t="n">
         <v>8823.753219529499</v>
@@ -14046,7 +14046,7 @@
         <v>35.50851805344785</v>
       </c>
       <c r="J124" t="n">
-        <v>2.038081814396002e-05</v>
+        <v>2.698338434590971</v>
       </c>
       <c r="K124" t="n">
         <v>4.026037354456235</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0.6524938999750468</v>
       </c>
       <c r="F125" t="n">
-        <v>0.000182435370950652</v>
+        <v>182435.370950652</v>
       </c>
       <c r="G125" t="n">
         <v>8823.753219529499</v>
@@ -14156,7 +14156,7 @@
         <v>32.08209676658559</v>
       </c>
       <c r="J125" t="n">
-        <v>2.100752078110569e-05</v>
+        <v>2.701035806043343</v>
       </c>
       <c r="K125" t="n">
         <v>4.026037354456235</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>0.6524938999750468</v>
       </c>
       <c r="F126" t="n">
-        <v>0.000182435370950652</v>
+        <v>182435.370950652</v>
       </c>
       <c r="G126" t="n">
         <v>8823.753219529499</v>
@@ -14266,7 +14266,7 @@
         <v>37.28385186595087</v>
       </c>
       <c r="J126" t="n">
-        <v>2.009841661135869e-05</v>
+        <v>2.697091536466762</v>
       </c>
       <c r="K126" t="n">
         <v>4.026037354456235</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" t="n">
-        <v>0.0351</v>
+        <v>35.1</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -14364,7 +14364,7 @@
         <v>0.5428068109441803</v>
       </c>
       <c r="F127" t="n">
-        <v>0.002881157459529074</v>
+        <v>2881157.459529074</v>
       </c>
       <c r="G127" t="n">
         <v>5666.435238502631</v>
@@ -14376,7 +14376,7 @@
         <v>41.19378452656296</v>
       </c>
       <c r="J127" t="n">
-        <v>3.573517190433686e-05</v>
+        <v>4.274284067364551</v>
       </c>
       <c r="K127" t="n">
         <v>8.832826729987287</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128" t="n">
-        <v>0.0439</v>
+        <v>43.9</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>0.004392274874571567</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3560596586267977</v>
+        <v>356059658.6267977</v>
       </c>
       <c r="G128" t="n">
         <v>62992.35112853179</v>
@@ -14486,7 +14486,7 @@
         <v>41.19378452656296</v>
       </c>
       <c r="J128" t="n">
-        <v>3.573517190433686e-05</v>
+        <v>4.274284067364551</v>
       </c>
       <c r="K128" t="n">
         <v>107.3702049272567</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="129" spans="1:36">
       <c r="A129" t="n">
-        <v>0.0372</v>
+        <v>37.2</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -14584,7 +14584,7 @@
         <v>0.05497895016959631</v>
       </c>
       <c r="F129" t="n">
-        <v>0.02844564851840087</v>
+        <v>28445648.51840087</v>
       </c>
       <c r="G129" t="n">
         <v>17804.68737377222</v>
@@ -14596,7 +14596,7 @@
         <v>41.19378452656296</v>
       </c>
       <c r="J129" t="n">
-        <v>3.573517190433686e-05</v>
+        <v>4.274284067364551</v>
       </c>
       <c r="K129" t="n">
         <v>53.73153142503292</v>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="130" spans="1:36">
       <c r="A130" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -14694,7 +14694,7 @@
         <v>1.404466533373837</v>
       </c>
       <c r="F130" t="n">
-        <v>0.000126214867815043</v>
+        <v>126214.8678150429</v>
       </c>
       <c r="G130" t="n">
         <v>6585.78146148095</v>
@@ -14706,7 +14706,7 @@
         <v>28.24843845498824</v>
       </c>
       <c r="J130" t="n">
-        <v>8.891938250428815e-05</v>
+        <v>2.91845412386474</v>
       </c>
       <c r="K130" t="n">
         <v>4.622247980477945</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="131" spans="1:36">
       <c r="A131" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -14804,7 +14804,7 @@
         <v>1.404466533373837</v>
       </c>
       <c r="F131" t="n">
-        <v>0.000126214867815043</v>
+        <v>126214.8678150429</v>
       </c>
       <c r="G131" t="n">
         <v>6585.78146148095</v>
@@ -14816,7 +14816,7 @@
         <v>28.24843845498824</v>
       </c>
       <c r="J131" t="n">
-        <v>8.891938250428815e-05</v>
+        <v>2.91845412386474</v>
       </c>
       <c r="K131" t="n">
         <v>3.948015951700263</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="132" spans="1:36">
       <c r="A132" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -14914,7 +14914,7 @@
         <v>1.404466533373837</v>
       </c>
       <c r="F132" t="n">
-        <v>0.000126214867815043</v>
+        <v>126214.8678150429</v>
       </c>
       <c r="G132" t="n">
         <v>6585.78146148095</v>
@@ -14926,7 +14926,7 @@
         <v>28.24843845498824</v>
       </c>
       <c r="J132" t="n">
-        <v>8.891938250428815e-05</v>
+        <v>2.91845412386474</v>
       </c>
       <c r="K132" t="n">
         <v>2.851157246084644</v>
@@ -15009,7 +15009,7 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" t="n">
-        <v>0.0075</v>
+        <v>7.5</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -15024,7 +15024,7 @@
         <v>0.9343017711285181</v>
       </c>
       <c r="F133" t="n">
-        <v>8.396268030614443e-05</v>
+        <v>83962.68030614444</v>
       </c>
       <c r="G133" t="n">
         <v>9899.916648548784</v>
@@ -15036,7 +15036,7 @@
         <v>28.24843845498824</v>
       </c>
       <c r="J133" t="n">
-        <v>8.891938250428815e-05</v>
+        <v>2.91845412386474</v>
       </c>
       <c r="K133" t="n">
         <v>2.851157246084644</v>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" t="n">
-        <v>0.00244</v>
+        <v>2.44</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -15134,7 +15134,7 @@
         <v>1.911701320471888</v>
       </c>
       <c r="F134" t="n">
-        <v>7.691542805474424e-05</v>
+        <v>76915.42805474425</v>
       </c>
       <c r="G134" t="n">
         <v>2268.09491928112</v>
@@ -15146,7 +15146,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J134" t="n">
-        <v>1.734631771150335e-05</v>
+        <v>2.098485717827558</v>
       </c>
       <c r="K134" t="n">
         <v>7.385088299322103</v>
@@ -15229,7 +15229,7 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" t="n">
-        <v>0.00134</v>
+        <v>1.34</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -15244,7 +15244,7 @@
         <v>1.911701320471888</v>
       </c>
       <c r="F135" t="n">
-        <v>7.691542805474424e-05</v>
+        <v>76915.42805474425</v>
       </c>
       <c r="G135" t="n">
         <v>2268.09491928112</v>
@@ -15256,7 +15256,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J135" t="n">
-        <v>1.734631771150335e-05</v>
+        <v>2.098485717827558</v>
       </c>
       <c r="K135" t="n">
         <v>7.385088299322103</v>
@@ -15339,7 +15339,7 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" t="n">
-        <v>0.00134</v>
+        <v>1.34</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -15354,7 +15354,7 @@
         <v>1.911701320471888</v>
       </c>
       <c r="F136" t="n">
-        <v>7.691542805474424e-05</v>
+        <v>76915.42805474425</v>
       </c>
       <c r="G136" t="n">
         <v>2268.09491928112</v>
@@ -15366,7 +15366,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J136" t="n">
-        <v>1.734631771150335e-05</v>
+        <v>2.098485717827558</v>
       </c>
       <c r="K136" t="n">
         <v>7.385088299322103</v>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" t="n">
-        <v>0.00225</v>
+        <v>2.25</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -15464,7 +15464,7 @@
         <v>1.960098822255987</v>
       </c>
       <c r="F137" t="n">
-        <v>7.886265408144662e-05</v>
+        <v>78862.65408144661</v>
       </c>
       <c r="G137" t="n">
         <v>2212.092575595167</v>
@@ -15476,7 +15476,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J137" t="n">
-        <v>2.526504941599281e-05</v>
+        <v>3.105758862384784</v>
       </c>
       <c r="K137" t="n">
         <v>3.02124062745103</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" t="n">
-        <v>0.00134</v>
+        <v>1.34</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -15574,7 +15574,7 @@
         <v>1.960098822255987</v>
       </c>
       <c r="F138" t="n">
-        <v>7.886265408144662e-05</v>
+        <v>78862.65408144661</v>
       </c>
       <c r="G138" t="n">
         <v>2212.092575595167</v>
@@ -15586,7 +15586,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J138" t="n">
-        <v>1.662174303683738e-05</v>
+        <v>2.043262409463674</v>
       </c>
       <c r="K138" t="n">
         <v>3.02124062745103</v>
@@ -15669,7 +15669,7 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -15684,7 +15684,7 @@
         <v>0.710681291072867</v>
       </c>
       <c r="F139" t="n">
-        <v>8.041694426583074e-05</v>
+        <v>80416.94426583074</v>
       </c>
       <c r="G139" t="n">
         <v>20509.63025340844</v>
@@ -15696,7 +15696,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J139" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K139" t="n">
         <v>19.76871092254536</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -15794,7 +15794,7 @@
         <v>0.6830846703891454</v>
       </c>
       <c r="F140" t="n">
-        <v>8.366578881417031e-05</v>
+        <v>83665.7888141703</v>
       </c>
       <c r="G140" t="n">
         <v>20919.8228584766</v>
@@ -15806,7 +15806,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J140" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K140" t="n">
         <v>13.84680653469838</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="141" spans="1:36">
       <c r="A141" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -15904,7 +15904,7 @@
         <v>0.6092946596989599</v>
       </c>
       <c r="F141" t="n">
-        <v>9.379832379166499e-05</v>
+        <v>93798.32379166498</v>
       </c>
       <c r="G141" t="n">
         <v>22150.40067368111</v>
@@ -15916,7 +15916,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J141" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K141" t="n">
         <v>8.18507587991895</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -16014,7 +16014,7 @@
         <v>0.5018581251838621</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0001138784347748429</v>
+        <v>113878.4347748429</v>
       </c>
       <c r="G142" t="n">
         <v>24406.46000155604</v>
@@ -16026,7 +16026,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J142" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K142" t="n">
         <v>4.117794573834366</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -16124,7 +16124,7 @@
         <v>0.4017645378895736</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0001422495327118281</v>
+        <v>142249.5327118281</v>
       </c>
       <c r="G143" t="n">
         <v>27277.80823703322</v>
@@ -16136,7 +16136,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J143" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K143" t="n">
         <v>2.904014330744636</v>
@@ -16219,7 +16219,7 @@
     </row>
     <row r="144" spans="1:36">
       <c r="A144" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>0.6698852776631794</v>
       </c>
       <c r="F144" t="n">
-        <v>8.531433617161983e-05</v>
+        <v>85314.33617161983</v>
       </c>
       <c r="G144" t="n">
         <v>21124.91916101069</v>
@@ -16246,7 +16246,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J144" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K144" t="n">
         <v>7.63026531184062</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -16344,7 +16344,7 @@
         <v>0.5981662242848809</v>
       </c>
       <c r="F145" t="n">
-        <v>9.554337148223351e-05</v>
+        <v>95543.37148223352</v>
       </c>
       <c r="G145" t="n">
         <v>22355.4969762152</v>
@@ -16356,7 +16356,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J145" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K145" t="n">
         <v>5.425615529976209</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -16454,7 +16454,7 @@
         <v>0.5468461765719198</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0001045098607678736</v>
+        <v>104509.8607678736</v>
       </c>
       <c r="G146" t="n">
         <v>23380.97848888562</v>
@@ -16466,7 +16466,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J146" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K146" t="n">
         <v>4.463938935648482</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>0.3899485822073344</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0001465598809244766</v>
+        <v>146559.8809244765</v>
       </c>
       <c r="G147" t="n">
         <v>27688.00084210139</v>
@@ -16576,7 +16576,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J147" t="n">
-        <v>2.452830188679245e-05</v>
+        <v>4.141247435962065</v>
       </c>
       <c r="K147" t="n">
         <v>3.398026313939112</v>
@@ -16659,10 +16659,10 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C148" t="n">
         <v>18.55459254530333</v>
@@ -16674,7 +16674,7 @@
         <v>0.07443846406207066</v>
       </c>
       <c r="F148" t="n">
-        <v>0.001098815151472782</v>
+        <v>1098815.151472782</v>
       </c>
       <c r="G148" t="n">
         <v>23027.27947613223</v>
@@ -16686,7 +16686,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J148" t="n">
-        <v>2.509124652025982e-05</v>
+        <v>4.306897333400548</v>
       </c>
       <c r="K148" t="n">
         <v>40.20646589397368</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
         <v>68.53213544746212</v>
@@ -16784,7 +16784,7 @@
         <v>0.0545646932337143</v>
       </c>
       <c r="F149" t="n">
-        <v>0.001499030001202804</v>
+        <v>1499030.001202804</v>
       </c>
       <c r="G149" t="n">
         <v>26895.86242812244</v>
@@ -16796,7 +16796,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J149" t="n">
-        <v>2.509124652025982e-05</v>
+        <v>4.306897333400548</v>
       </c>
       <c r="K149" t="n">
         <v>37.79865481943156</v>
@@ -16879,10 +16879,10 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C150" t="n">
         <v>310.2327873574718</v>
@@ -16894,7 +16894,7 @@
         <v>0.02662716057255681</v>
       </c>
       <c r="F150" t="n">
-        <v>0.003071830056414884</v>
+        <v>3071830.056414884</v>
       </c>
       <c r="G150" t="n">
         <v>38501.61128409308</v>
@@ -16906,7 +16906,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J150" t="n">
-        <v>2.509124652025982e-05</v>
+        <v>4.306897333400548</v>
       </c>
       <c r="K150" t="n">
         <v>25.83008463856575</v>
@@ -16989,10 +16989,10 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C151" t="n">
         <v>1058.807707370304</v>
@@ -17004,7 +17004,7 @@
         <v>0.0114297324217515</v>
       </c>
       <c r="F151" t="n">
-        <v>0.007156257832257389</v>
+        <v>7156257.832257389</v>
       </c>
       <c r="G151" t="n">
         <v>58765.61722308944</v>
@@ -17016,7 +17016,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J151" t="n">
-        <v>2.509124652025982e-05</v>
+        <v>4.306897333400548</v>
       </c>
       <c r="K151" t="n">
         <v>16.89788820633808</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>5.784301548097401</v>
       </c>
       <c r="F152" t="n">
-        <v>9.230120258783554e-05</v>
+        <v>92301.20258783553</v>
       </c>
       <c r="G152" t="n">
         <v>11347.84332583796</v>
@@ -17126,7 +17126,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J152" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K152" t="n">
         <v>16.27995483838306</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -17224,7 +17224,7 @@
         <v>8.172977160697252</v>
       </c>
       <c r="F153" t="n">
-        <v>6.532478661356262e-05</v>
+        <v>65324.78661356262</v>
       </c>
       <c r="G153" t="n">
         <v>9546.598353482732</v>
@@ -17236,7 +17236,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J153" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K153" t="n">
         <v>12.5826934099198</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -17334,7 +17334,7 @@
         <v>8.329394229260258</v>
       </c>
       <c r="F154" t="n">
-        <v>6.409805735266357e-05</v>
+        <v>64098.05735266358</v>
       </c>
       <c r="G154" t="n">
         <v>9456.53610486497</v>
@@ -17346,7 +17346,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J154" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K154" t="n">
         <v>12.63101901030758</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -17444,7 +17444,7 @@
         <v>9.561804599916112</v>
       </c>
       <c r="F155" t="n">
-        <v>5.58365299605425e-05</v>
+        <v>55836.5299605425</v>
       </c>
       <c r="G155" t="n">
         <v>8826.100364540638</v>
@@ -17456,7 +17456,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J155" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K155" t="n">
         <v>11.59375938539099</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -17554,7 +17554,7 @@
         <v>2.902319887290153</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0004826206671259376</v>
+        <v>482620.6671259376</v>
       </c>
       <c r="G156" t="n">
         <v>2367.572766618011</v>
@@ -17566,7 +17566,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J156" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K156" t="n">
         <v>16.54096599787195</v>
@@ -17649,10 +17649,10 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>21.54980376078995</v>
@@ -17664,7 +17664,7 @@
         <v>1.436501762396136</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0004826206671259376</v>
+        <v>482620.6671259376</v>
       </c>
       <c r="G157" t="n">
         <v>2367.572766618011</v>
@@ -17676,7 +17676,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J157" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K157" t="n">
         <v>18.32421995112845</v>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="158" spans="1:36">
       <c r="A158" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B158" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
         <v>21.54980376078995</v>
@@ -17774,7 +17774,7 @@
         <v>1.399902991379674</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0004703245991736845</v>
+        <v>470324.5991736844</v>
       </c>
       <c r="G158" t="n">
         <v>2429.470093849854</v>
@@ -17786,7 +17786,7 @@
         <v>35.72438768353236</v>
       </c>
       <c r="J158" t="n">
-        <v>2.045410937000319e-05</v>
+        <v>3.395822897488893</v>
       </c>
       <c r="K158" t="n">
         <v>18.85656505310179</v>
@@ -17869,10 +17869,10 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C159" t="n">
         <v>21.54980376078995</v>
@@ -17884,7 +17884,7 @@
         <v>1.36512279283608</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0004586395159644003</v>
+        <v>458639.5159644003</v>
       </c>
       <c r="G159" t="n">
         <v>2491.367421081697</v>
@@ -17896,7 +17896,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J159" t="n">
-        <v>2.13142485361093e-05</v>
+        <v>3.478647846208134</v>
       </c>
       <c r="K159" t="n">
         <v>19.00830179206794</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -17994,7 +17994,7 @@
         <v>5.228084645455327</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0004826206671259376</v>
+        <v>482620.6671259376</v>
       </c>
       <c r="G160" t="n">
         <v>2367.572766618011</v>
@@ -18006,7 +18006,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J160" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K160" t="n">
         <v>9.976329698173124</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="161" spans="1:36">
       <c r="A161" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>5.228084645455327</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0004826206671259376</v>
+        <v>482620.6671259376</v>
       </c>
       <c r="G161" t="n">
         <v>2367.572766618011</v>
@@ -18116,7 +18116,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J161" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K161" t="n">
         <v>7.519698003494942</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="162" spans="1:36">
       <c r="A162" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>5.262479939175427</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0004857958030938714</v>
+        <v>485795.8030938714</v>
       </c>
       <c r="G162" t="n">
         <v>2352.09843481005</v>
@@ -18226,7 +18226,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J162" t="n">
-        <v>1.804017041996348e-05</v>
+        <v>3.14734805133117</v>
       </c>
       <c r="K162" t="n">
         <v>5.40576091475324</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="163" spans="1:36">
       <c r="A163" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B163" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>21.54980376078995</v>
@@ -18324,7 +18324,7 @@
         <v>2.456292372143831</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0004586395159644003</v>
+        <v>458639.5159644003</v>
       </c>
       <c r="G163" t="n">
         <v>2491.367421081697</v>
@@ -18336,7 +18336,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J163" t="n">
-        <v>2.13142485361093e-05</v>
+        <v>3.478647846208134</v>
       </c>
       <c r="K163" t="n">
         <v>9.315562638880563</v>
@@ -18419,10 +18419,10 @@
     </row>
     <row r="164" spans="1:36">
       <c r="A164" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B164" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
         <v>21.54980376078995</v>
@@ -18434,7 +18434,7 @@
         <v>2.567942025423096</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0004794867666900548</v>
+        <v>479486.7666900548</v>
       </c>
       <c r="G164" t="n">
         <v>2383.047098425972</v>
@@ -18446,7 +18446,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J164" t="n">
-        <v>2.13142485361093e-05</v>
+        <v>3.478647846208134</v>
       </c>
       <c r="K164" t="n">
         <v>10.98741769384742</v>
@@ -18529,10 +18529,10 @@
     </row>
     <row r="165" spans="1:36">
       <c r="A165" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B165" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C165" t="n">
         <v>21.54980376078995</v>
@@ -18544,7 +18544,7 @@
         <v>2.567942025423096</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0004794867666900548</v>
+        <v>479486.7666900548</v>
       </c>
       <c r="G165" t="n">
         <v>2383.047098425972</v>
@@ -18556,7 +18556,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J165" t="n">
-        <v>2.13142485361093e-05</v>
+        <v>3.478647846208134</v>
       </c>
       <c r="K165" t="n">
         <v>11.50554513691925</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="166" spans="1:36">
       <c r="A166" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>4.182874256072521</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0003483988619390006</v>
+        <v>348398.8619390006</v>
       </c>
       <c r="G166" t="n">
         <v>1952.713299576013</v>
@@ -18666,7 +18666,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J166" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K166" t="n">
         <v>13.32619318459366</v>
@@ -18749,10 +18749,10 @@
     </row>
     <row r="167" spans="1:36">
       <c r="A167" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B167" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>18.12919998923599</v>
@@ -18764,7 +18764,7 @@
         <v>2.127032363507197</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0003579440362386993</v>
+        <v>357944.0362386993</v>
       </c>
       <c r="G167" t="n">
         <v>1900.640944920653</v>
@@ -18776,7 +18776,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J167" t="n">
-        <v>1.804017041996348e-05</v>
+        <v>3.14734805133117</v>
       </c>
       <c r="K167" t="n">
         <v>14.39103297529397</v>
@@ -18859,10 +18859,10 @@
     </row>
     <row r="168" spans="1:36">
       <c r="A168" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B168" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C168" t="n">
         <v>18.12919998923599</v>
@@ -18874,7 +18874,7 @@
         <v>2.029717157333665</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0003415675117049027</v>
+        <v>341567.5117049026</v>
       </c>
       <c r="G168" t="n">
         <v>1991.767565567533</v>
@@ -18886,7 +18886,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J168" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K168" t="n">
         <v>14.46774763399737</v>
@@ -18969,10 +18969,10 @@
     </row>
     <row r="169" spans="1:36">
       <c r="A169" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C169" t="n">
         <v>18.12919998923599</v>
@@ -18984,7 +18984,7 @@
         <v>2.070311500480338</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0003483988619390006</v>
+        <v>348398.8619390006</v>
       </c>
       <c r="G169" t="n">
         <v>1952.713299576013</v>
@@ -18996,7 +18996,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J169" t="n">
-        <v>1.881843489019487e-05</v>
+        <v>3.230173000050411</v>
       </c>
       <c r="K169" t="n">
         <v>14.51146674057028</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="170" spans="1:36">
       <c r="A170" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -19094,7 +19094,7 @@
         <v>7.063881714011359</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0003266239330678131</v>
+        <v>326623.9330678131</v>
       </c>
       <c r="G170" t="n">
         <v>2082.894186214414</v>
@@ -19106,7 +19106,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J170" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K170" t="n">
         <v>3.958480971811252</v>
@@ -19189,7 +19189,7 @@
     </row>
     <row r="171" spans="1:36">
       <c r="A171" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>6.891591916108643</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0003186574956759153</v>
+        <v>318657.4956759153</v>
       </c>
       <c r="G171" t="n">
         <v>2134.966540869774</v>
@@ -19216,7 +19216,7 @@
         <v>35.72438768353236</v>
       </c>
       <c r="J171" t="n">
-        <v>2.045410937000319e-05</v>
+        <v>3.395822897488893</v>
       </c>
       <c r="K171" t="n">
         <v>5.736872490911415</v>
@@ -19299,7 +19299,7 @@
     </row>
     <row r="172" spans="1:36">
       <c r="A172" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -19314,7 +19314,7 @@
         <v>7.063881714011359</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0003266239330678131</v>
+        <v>326623.9330678131</v>
       </c>
       <c r="G172" t="n">
         <v>2082.894186214414</v>
@@ -19326,7 +19326,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J172" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K172" t="n">
         <v>7.80356264675179</v>
@@ -19409,10 +19409,10 @@
     </row>
     <row r="173" spans="1:36">
       <c r="A173" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B173" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>18.12919998923599</v>
@@ -19424,7 +19424,7 @@
         <v>3.652110123229622</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0003415675117049027</v>
+        <v>341567.5117049026</v>
       </c>
       <c r="G173" t="n">
         <v>1991.767565567533</v>
@@ -19436,7 +19436,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J173" t="n">
-        <v>1.962264150943397e-05</v>
+        <v>3.312997948769652</v>
       </c>
       <c r="K173" t="n">
         <v>6.81232126816479</v>
@@ -19519,10 +19519,10 @@
     </row>
     <row r="174" spans="1:36">
       <c r="A174" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B174" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
         <v>18.12919998923599</v>
@@ -19534,7 +19534,7 @@
         <v>3.559062731554982</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0003328651547187905</v>
+        <v>332865.1547187905</v>
       </c>
       <c r="G174" t="n">
         <v>2043.839920222893</v>
@@ -19546,7 +19546,7 @@
         <v>35.72438768353236</v>
       </c>
       <c r="J174" t="n">
-        <v>2.045410937000319e-05</v>
+        <v>3.395822897488893</v>
       </c>
       <c r="K174" t="n">
         <v>7.847671284148464</v>
@@ -19629,10 +19629,10 @@
     </row>
     <row r="175" spans="1:36">
       <c r="A175" t="n">
-        <v>0.3</v>
+        <v>300</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C175" t="n">
         <v>18.12919998923599</v>
@@ -19644,7 +19644,7 @@
         <v>3.559062731554982</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0003328651547187905</v>
+        <v>332865.1547187905</v>
       </c>
       <c r="G175" t="n">
         <v>2043.839920222893</v>
@@ -19656,7 +19656,7 @@
         <v>35.72438768353236</v>
       </c>
       <c r="J175" t="n">
-        <v>2.045410937000319e-05</v>
+        <v>3.395822897488893</v>
       </c>
       <c r="K175" t="n">
         <v>8.199623840207092</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="176" spans="1:36">
       <c r="A176" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -19754,7 +19754,7 @@
         <v>47.47351024366751</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0007030366036073823</v>
+        <v>703036.6036073823</v>
       </c>
       <c r="G176" t="n">
         <v>240.5071411951589</v>
@@ -19766,7 +19766,7 @@
         <v>52.52716748172208</v>
       </c>
       <c r="J176" t="n">
-        <v>6.095791001451378e-06</v>
+        <v>0.09896016858807846</v>
       </c>
       <c r="K176" t="n">
         <v>1.193605559770472</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="177" spans="1:36">
       <c r="A177" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -19864,7 +19864,7 @@
         <v>80.70496741423477</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0007030366036073823</v>
+        <v>703036.6036073823</v>
       </c>
       <c r="G177" t="n">
         <v>511.7173216918274</v>
@@ -19876,7 +19876,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J177" t="n">
-        <v>7.547169811320755e-06</v>
+        <v>0.1130973355292326</v>
       </c>
       <c r="K177" t="n">
         <v>1.339181248362887</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="178" spans="1:36">
       <c r="A178" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -19974,7 +19974,7 @@
         <v>32.99408961934893</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0007030366036073823</v>
+        <v>703036.6036073823</v>
       </c>
       <c r="G178" t="n">
         <v>240.5071411951589</v>
@@ -19986,7 +19986,7 @@
         <v>52.52716748172208</v>
       </c>
       <c r="J178" t="n">
-        <v>6.095791001451378e-06</v>
+        <v>0.09896016858807846</v>
       </c>
       <c r="K178" t="n">
         <v>3.146970347453634</v>
@@ -20069,7 +20069,7 @@
     </row>
     <row r="179" spans="1:36">
       <c r="A179" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -20084,7 +20084,7 @@
         <v>22.89424683818842</v>
       </c>
       <c r="F179" t="n">
-        <v>0.001457816701240268</v>
+        <v>1457816.701240268</v>
       </c>
       <c r="G179" t="n">
         <v>346.3302833210287</v>
@@ -20096,7 +20096,7 @@
         <v>52.52716748172208</v>
       </c>
       <c r="J179" t="n">
-        <v>6.095791001451378e-06</v>
+        <v>0.09896016858807846</v>
       </c>
       <c r="K179" t="n">
         <v>2.401889427823943</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="180" spans="1:36">
       <c r="A180" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -20194,7 +20194,7 @@
         <v>38.92021962492031</v>
       </c>
       <c r="F180" t="n">
-        <v>0.001457816701240268</v>
+        <v>1457816.701240268</v>
       </c>
       <c r="G180" t="n">
         <v>736.8729432362313</v>
@@ -20206,7 +20206,7 @@
         <v>37.97909612393087</v>
       </c>
       <c r="J180" t="n">
-        <v>7.547169811320755e-06</v>
+        <v>0.1130973355292326</v>
       </c>
       <c r="K180" t="n">
         <v>2.611518419397021</v>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="181" spans="1:36">
       <c r="A181" t="n">
-        <v>0.0125</v>
+        <v>12.5</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -20304,7 +20304,7 @@
         <v>15.91150155254095</v>
       </c>
       <c r="F181" t="n">
-        <v>0.001457816701240268</v>
+        <v>1457816.701240268</v>
       </c>
       <c r="G181" t="n">
         <v>346.3302833210287</v>
@@ -20316,7 +20316,7 @@
         <v>52.52716748172208</v>
       </c>
       <c r="J181" t="n">
-        <v>6.095791001451378e-06</v>
+        <v>0.09896016858807846</v>
       </c>
       <c r="K181" t="n">
         <v>5.214734722087697</v>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="182" spans="1:36">
       <c r="A182" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -20414,7 +20414,7 @@
         <v>0.08872191190143906</v>
       </c>
       <c r="F182" t="n">
-        <v>0.003053888631121946</v>
+        <v>3053888.631121946</v>
       </c>
       <c r="G182" t="n">
         <v>30650.23050129735</v>
@@ -20426,7 +20426,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J182" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K182" t="n">
         <v>50.74864741358635</v>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="183" spans="1:36">
       <c r="A183" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -20524,7 +20524,7 @@
         <v>0.08415008977470227</v>
       </c>
       <c r="F183" t="n">
-        <v>0.003219804504221234</v>
+        <v>3219804.504221234</v>
       </c>
       <c r="G183" t="n">
         <v>31471.82293037659</v>
@@ -20536,7 +20536,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J183" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K183" t="n">
         <v>49.28209976726357</v>
@@ -20619,7 +20619,7 @@
     </row>
     <row r="184" spans="1:36">
       <c r="A184" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>0.05953564093725956</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00455100228739856</v>
+        <v>4551002.28739856</v>
       </c>
       <c r="G184" t="n">
         <v>37416.28579959699</v>
@@ -20646,7 +20646,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J184" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K184" t="n">
         <v>54.10882192358135</v>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="185" spans="1:36">
       <c r="A185" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -20744,7 +20744,7 @@
         <v>0.03820933901224085</v>
       </c>
       <c r="F185" t="n">
-        <v>0.007091115551630095</v>
+        <v>7091115.551630096</v>
       </c>
       <c r="G185" t="n">
         <v>46705.11314483405</v>
@@ -20756,7 +20756,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J185" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K185" t="n">
         <v>52.92601043154667</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -20854,7 +20854,7 @@
         <v>0.07353878109323238</v>
       </c>
       <c r="F186" t="n">
-        <v>0.003684407520213063</v>
+        <v>3684407.520213063</v>
       </c>
       <c r="G186" t="n">
         <v>33665.95800568234</v>
@@ -20866,7 +20866,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J186" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K186" t="n">
         <v>27.31571568528357</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="187" spans="1:36">
       <c r="A187" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -20964,7 +20964,7 @@
         <v>0.04957720599119479</v>
       </c>
       <c r="F187" t="n">
-        <v>0.005465149410302174</v>
+        <v>5465149.410302174</v>
       </c>
       <c r="G187" t="n">
         <v>41002.29510769579</v>
@@ -20976,7 +20976,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J187" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K187" t="n">
         <v>26.04622906709587</v>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="188" spans="1:36">
       <c r="A188" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -21074,7 +21074,7 @@
         <v>0.04677965259407975</v>
       </c>
       <c r="F188" t="n">
-        <v>0.005791980552705036</v>
+        <v>5791980.552705036</v>
       </c>
       <c r="G188" t="n">
         <v>42210.51926810644</v>
@@ -21086,7 +21086,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J188" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K188" t="n">
         <v>22.67677051576317</v>
@@ -21169,7 +21169,7 @@
     </row>
     <row r="189" spans="1:36">
       <c r="A189" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -21184,7 +21184,7 @@
         <v>0.04267867546636618</v>
       </c>
       <c r="F189" t="n">
-        <v>0.006348529684355665</v>
+        <v>6348529.684355665</v>
       </c>
       <c r="G189" t="n">
         <v>44192.00689117991</v>
@@ -21196,7 +21196,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J189" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K189" t="n">
         <v>17.54547044705984</v>
@@ -21279,7 +21279,7 @@
     </row>
     <row r="190" spans="1:36">
       <c r="A190" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -21294,7 +21294,7 @@
         <v>0.1774438238028781</v>
       </c>
       <c r="F190" t="n">
-        <v>0.006107777262243892</v>
+        <v>6107777.262243891</v>
       </c>
       <c r="G190" t="n">
         <v>15325.11525064868</v>
@@ -21306,7 +21306,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J190" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K190" t="n">
         <v>50.74864741358635</v>
@@ -21389,7 +21389,7 @@
     </row>
     <row r="191" spans="1:36">
       <c r="A191" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>0.1683001795494045</v>
       </c>
       <c r="F191" t="n">
-        <v>0.006439609008442468</v>
+        <v>6439609.008442468</v>
       </c>
       <c r="G191" t="n">
         <v>15735.9114651883</v>
@@ -21416,7 +21416,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J191" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K191" t="n">
         <v>49.28209976726357</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -21514,7 +21514,7 @@
         <v>0.1190712818745191</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00910200457479712</v>
+        <v>9102004.57479712</v>
       </c>
       <c r="G192" t="n">
         <v>18708.14289979849</v>
@@ -21526,7 +21526,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J192" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K192" t="n">
         <v>54.10882192358135</v>
@@ -21609,7 +21609,7 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -21624,7 +21624,7 @@
         <v>0.0764186780244817</v>
       </c>
       <c r="F193" t="n">
-        <v>0.01418223110326019</v>
+        <v>14182231.10326019</v>
       </c>
       <c r="G193" t="n">
         <v>23352.55657241703</v>
@@ -21636,7 +21636,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J193" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K193" t="n">
         <v>52.92601043154667</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -21734,7 +21734,7 @@
         <v>0.1470775621864648</v>
       </c>
       <c r="F194" t="n">
-        <v>0.007368815040426127</v>
+        <v>7368815.040426127</v>
       </c>
       <c r="G194" t="n">
         <v>16832.97900284117</v>
@@ -21746,7 +21746,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J194" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K194" t="n">
         <v>27.31571568528357</v>
@@ -21829,7 +21829,7 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -21844,7 +21844,7 @@
         <v>0.09915441198238957</v>
       </c>
       <c r="F195" t="n">
-        <v>0.01093029882060435</v>
+        <v>10930298.82060435</v>
       </c>
       <c r="G195" t="n">
         <v>20501.1475538479</v>
@@ -21856,7 +21856,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J195" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K195" t="n">
         <v>26.04622906709587</v>
@@ -21939,7 +21939,7 @@
     </row>
     <row r="196" spans="1:36">
       <c r="A196" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -21954,7 +21954,7 @@
         <v>0.0935593051881595</v>
       </c>
       <c r="F196" t="n">
-        <v>0.01158396110541007</v>
+        <v>11583961.10541007</v>
       </c>
       <c r="G196" t="n">
         <v>21105.25963405322</v>
@@ -21966,7 +21966,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J196" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K196" t="n">
         <v>22.67677051576317</v>
@@ -22049,7 +22049,7 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -22064,7 +22064,7 @@
         <v>0.08535735093273236</v>
       </c>
       <c r="F197" t="n">
-        <v>0.01269705936871133</v>
+        <v>12697059.36871133</v>
       </c>
       <c r="G197" t="n">
         <v>22096.00344558995</v>
@@ -22076,7 +22076,7 @@
         <v>33.63914194744603</v>
       </c>
       <c r="J197" t="n">
-        <v>3.27911515940143e-05</v>
+        <v>12.66690157927404</v>
       </c>
       <c r="K197" t="n">
         <v>17.54547044705984</v>
@@ -22159,7 +22159,7 @@
     </row>
     <row r="198" spans="1:36">
       <c r="A198" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -22174,7 +22174,7 @@
         <v>0.07451635705925197</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00206839206008994</v>
+        <v>2068392.06008994</v>
       </c>
       <c r="G198" t="n">
         <v>31593.42744125341</v>
@@ -22186,7 +22186,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J198" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K198" t="n">
         <v>32.60150344090881</v>
@@ -22269,10 +22269,10 @@
     </row>
     <row r="199" spans="1:36">
       <c r="A199" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B199" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>22.71082127545128</v>
@@ -22284,7 +22284,7 @@
         <v>0.04968606095817224</v>
       </c>
       <c r="F199" t="n">
-        <v>0.001646218488372886</v>
+        <v>1646218.488372886</v>
       </c>
       <c r="G199" t="n">
         <v>28185.39007878585</v>
@@ -22296,7 +22296,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J199" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K199" t="n">
         <v>42.3112276079399</v>
@@ -22379,10 +22379,10 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B200" t="n">
-        <v>0.005</v>
+        <v>5</v>
       </c>
       <c r="C200" t="n">
         <v>22.33972942454522</v>
@@ -22394,7 +22394,7 @@
         <v>0.0513504707881747</v>
       </c>
       <c r="F200" t="n">
-        <v>0.001592860024617368</v>
+        <v>1592860.024617368</v>
       </c>
       <c r="G200" t="n">
         <v>27724.8444892632</v>
@@ -22406,7 +22406,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J200" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K200" t="n">
         <v>46.06562642064213</v>
@@ -22489,10 +22489,10 @@
     </row>
     <row r="201" spans="1:36">
       <c r="A201" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B201" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C201" t="n">
         <v>20.41005179983367</v>
@@ -22504,7 +22504,7 @@
         <v>0.06151939178683525</v>
       </c>
       <c r="F201" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G201" t="n">
         <v>25330.00742374545</v>
@@ -22516,7 +22516,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J201" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K201" t="n">
         <v>44.22711248337106</v>
@@ -22599,10 +22599,10 @@
     </row>
     <row r="202" spans="1:36">
       <c r="A202" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B202" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C202" t="n">
         <v>20.41005179983367</v>
@@ -22614,7 +22614,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F202" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G202" t="n">
         <v>25330.00742374545</v>
@@ -22626,7 +22626,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J202" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K202" t="n">
         <v>40.61876438367036</v>
@@ -22709,10 +22709,10 @@
     </row>
     <row r="203" spans="1:36">
       <c r="A203" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B203" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C203" t="n">
         <v>20.41005179983367</v>
@@ -22724,7 +22724,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F203" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G203" t="n">
         <v>25330.00742374545</v>
@@ -22736,7 +22736,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J203" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K203" t="n">
         <v>36.00560725712879</v>
@@ -22819,10 +22819,10 @@
     </row>
     <row r="204" spans="1:36">
       <c r="A204" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C204" t="n">
         <v>20.41005179983367</v>
@@ -22834,7 +22834,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F204" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G204" t="n">
         <v>25330.00742374545</v>
@@ -22846,7 +22846,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J204" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K204" t="n">
         <v>30.96931632871456</v>
@@ -22929,10 +22929,10 @@
     </row>
     <row r="205" spans="1:36">
       <c r="A205" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C205" t="n">
         <v>20.41005179983367</v>
@@ -22944,7 +22944,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F205" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G205" t="n">
         <v>25330.00742374545</v>
@@ -22956,7 +22956,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J205" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K205" t="n">
         <v>27.55862485885744</v>
@@ -23039,10 +23039,10 @@
     </row>
     <row r="206" spans="1:36">
       <c r="A206" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B206" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C206" t="n">
         <v>20.41005179983367</v>
@@ -23054,7 +23054,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F206" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G206" t="n">
         <v>25330.00742374545</v>
@@ -23066,7 +23066,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J206" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K206" t="n">
         <v>24.53260588575753</v>
@@ -23149,10 +23149,10 @@
     </row>
     <row r="207" spans="1:36">
       <c r="A207" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B207" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C207" t="n">
         <v>20.41005179983367</v>
@@ -23164,7 +23164,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F207" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G207" t="n">
         <v>25330.00742374545</v>
@@ -23176,7 +23176,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J207" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K207" t="n">
         <v>20.65645534471989</v>
@@ -23259,10 +23259,10 @@
     </row>
     <row r="208" spans="1:36">
       <c r="A208" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B208" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C208" t="n">
         <v>20.41005179983367</v>
@@ -23274,7 +23274,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F208" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G208" t="n">
         <v>25330.00742374545</v>
@@ -23286,7 +23286,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J208" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K208" t="n">
         <v>19.79419687377824</v>
@@ -23369,10 +23369,10 @@
     </row>
     <row r="209" spans="1:36">
       <c r="A209" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B209" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C209" t="n">
         <v>20.41005179983367</v>
@@ -23384,7 +23384,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F209" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G209" t="n">
         <v>25330.00742374545</v>
@@ -23396,7 +23396,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J209" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K209" t="n">
         <v>41.1744024345419</v>
@@ -23479,10 +23479,10 @@
     </row>
     <row r="210" spans="1:36">
       <c r="A210" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="B210" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C210" t="n">
         <v>20.41005179983367</v>
@@ -23494,7 +23494,7 @@
         <v>0.7532986749408398</v>
       </c>
       <c r="F210" t="n">
-        <v>0.001329566333282066</v>
+        <v>1329566.333282066</v>
       </c>
       <c r="G210" t="n">
         <v>25330.00742374545</v>
@@ -23506,7 +23506,7 @@
         <v>41.71936924640783</v>
       </c>
       <c r="J210" t="n">
-        <v>2.456818530449455e-05</v>
+        <v>4.251680700921054</v>
       </c>
       <c r="K210" t="n">
         <v>59.94494602534078</v>
@@ -23589,7 +23589,7 @@
     </row>
     <row r="211" spans="1:36">
       <c r="A211" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -23604,7 +23604,7 @@
         <v>97.28484692602457</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0002387712624558126</v>
+        <v>238771.2624558126</v>
       </c>
       <c r="G211" t="n">
         <v>206.6432888751277</v>
@@ -23616,7 +23616,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J211" t="n">
-        <v>1.939203354297695e-05</v>
+        <v>1.589204096249525</v>
       </c>
       <c r="K211" t="n">
         <v>4.58482154765202</v>
@@ -23699,7 +23699,7 @@
     </row>
     <row r="212" spans="1:36">
       <c r="A212" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -23714,7 +23714,7 @@
         <v>97.28484692602457</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0002387712624558126</v>
+        <v>238771.2624558126</v>
       </c>
       <c r="G212" t="n">
         <v>95.14931097922546</v>
@@ -23726,7 +23726,7 @@
         <v>43.07215510203834</v>
       </c>
       <c r="J212" t="n">
-        <v>2.023737066342057e-05</v>
+        <v>1.632155558310323</v>
       </c>
       <c r="K212" t="n">
         <v>4.58482154765202</v>
@@ -23809,7 +23809,7 @@
     </row>
     <row r="213" spans="1:36">
       <c r="A213" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -23824,7 +23824,7 @@
         <v>10.10751656374281</v>
       </c>
       <c r="F213" t="n">
-        <v>2.4807403891513e-05</v>
+        <v>24807.403891513</v>
       </c>
       <c r="G213" t="n">
         <v>1988.941655423104</v>
@@ -23836,7 +23836,7 @@
         <v>45.9547236374305</v>
       </c>
       <c r="J213" t="n">
-        <v>1.939203354297695e-05</v>
+        <v>1.589204096249525</v>
       </c>
       <c r="K213" t="n">
         <v>4.58482154765202</v>
@@ -23919,7 +23919,7 @@
     </row>
     <row r="214" spans="1:36">
       <c r="A214" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>10.66135308778352</v>
       </c>
       <c r="F214" t="n">
-        <v>2.616671369378768e-05</v>
+        <v>26166.71369378768</v>
       </c>
       <c r="G214" t="n">
         <v>868.2374626854323</v>
@@ -23946,7 +23946,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J214" t="n">
-        <v>2.111042375502629e-05</v>
+        <v>1.675107020371121</v>
       </c>
       <c r="K214" t="n">
         <v>4.58482154765202</v>
@@ -24029,7 +24029,7 @@
     </row>
     <row r="215" spans="1:36">
       <c r="A215" t="n">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -24044,7 +24044,7 @@
         <v>10.66135308778352</v>
       </c>
       <c r="F215" t="n">
-        <v>2.616671369378768e-05</v>
+        <v>26166.71369378768</v>
       </c>
       <c r="G215" t="n">
         <v>665.8262750655156</v>
@@ -24056,7 +24056,7 @@
         <v>40.42146279788395</v>
       </c>
       <c r="J215" t="n">
-        <v>2.111042375502629e-05</v>
+        <v>1.675107020371121</v>
       </c>
       <c r="K215" t="n">
         <v>4.58482154765202</v>
